--- a/Text/03.테스트 시나리오/3th_Project_테스트 시나리오(영우).xlsx
+++ b/Text/03.테스트 시나리오/3th_Project_테스트 시나리오(영우).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="710" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="시험선택" sheetId="18" r:id="rId1"/>
@@ -2006,7 +2006,7 @@
   <numFmts count="1">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -2175,12 +2175,6 @@
       <name val="맑은 고딕"/>
       <scheme val="minor"/>
       <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color theme="1"/>
     </font>
     <font>
       <i/>
@@ -2772,10 +2766,10 @@
     <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2784,10 +2778,10 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2796,10 +2790,10 @@
     <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2808,10 +2802,10 @@
     <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2820,10 +2814,10 @@
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -2832,16 +2826,16 @@
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3281,7 +3275,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="그림 1"/>
+        <xdr:cNvPr id="1" name="그림 1" descr="xl/media/OImage2197952570.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3325,7 +3319,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 2"/>
+        <xdr:cNvPr id="2" name="그림 2" descr="xl/media/OImage2198527051.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3369,7 +3363,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 3"/>
+        <xdr:cNvPr id="3" name="그림 3" descr="xl/media/OImage2245528172.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3689,7 +3683,7 @@
   <dimension ref="A1:L230"/>
   <sheetViews>
     <sheetView topLeftCell="A13" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:J16"/>
+      <selection activeCell="B16" sqref="B16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3930,7 +3924,7 @@
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
     </row>
-    <row r="16" spans="1:12" ht="239.250000" customHeight="1">
+    <row r="16" spans="1:12" ht="225.000000" customHeight="1">
       <c r="A16" s="47"/>
       <c r="B16" s="113" t="s">
         <v>169</v>

--- a/Text/03.테스트 시나리오/3th_Project_테스트 시나리오(영우).xlsx
+++ b/Text/03.테스트 시나리오/3th_Project_테스트 시나리오(영우).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="710" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="690" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="시험선택" sheetId="18" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>실제결과</t>
   </si>
@@ -1998,6 +1998,479 @@
 3. 셀렉트박스의 초기 선택값은 &lt;---------&gt;
 </t>
   </si>
+  <si>
+    <t>1. 기출문제 영역 보여줌
+2. 기출문제 셀렉트박스에 선택한 자격증에 맞는 &lt;2019-03-03&gt;&lt;2019-04-27&gt;&lt;&gt; 삽입</t>
+  </si>
+  <si>
+    <t>1. 기출문제 영역 보여줌
+2. 기출문제 셀렉트박스에 선택한 자격증에 맞는 &lt;2019-03-03&gt;&lt;2019-04-27&gt;&lt;2020-03-0&gt; 삽입</t>
+  </si>
+  <si>
+    <t>1. 기출문제 영역 보여줌
+2. 기출문제 셀렉트박스에 선택한 자격증에 맞는 &lt;2019-03-03&gt;&lt;2019-04-27&gt;&lt;2020-03-08&gt; 삽입</t>
+  </si>
+  <si>
+    <t>자격증 셀렉트박스 생성
+1) 현재 페이지 접속시 바로</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">자격증 셀렉트박스 생성
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) 현재 페이지 접속시 바로</t>
+    </r>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택
+1) 자격증 셀렉트박스의 &lt;정보처리기사&gt; 선택</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">셀렉트 박스의 자격증 항목 선택
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) 자격증 셀렉트박스의 &lt;정보처리기사&gt; 선택</t>
+    </r>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택
+자격증 재선택 - 다시 선택한 자격증의 기출문제 삽입
+(기출문제 영역 보이는 상태)
+1) 자격증 셀렉트박스의 &lt;리눅스마스터 1급&gt;으로 재선택</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">셀렉트 박스의 자격증 항목 선택
+자격증 재선택 - 다시 선택한 자격증의 기출문제 삽입
+(기출문제 영역 보이는 상태)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) 자격증 셀렉트박스의 &lt;리눅스마스터 1급&gt;으로 재선택</t>
+    </r>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택
+- 자격증 재선택 - 다시 선택한 자격증의 기출문제 삽입
+(기출문제 영역 보이는 상태) 
+1) 자격증 셀렉트박스의 &lt;리눅스마스터 1급&gt;으로 재선택</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">셀렉트 박스의 자격증 항목 선택
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">자격증 재선택 - 다시 선택한 자격증의 기출문제 삽입
+(기출문제 영역 보이는 상태) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) 자격증 셀렉트박스의 &lt;리눅스마스터 1급&gt;으로 재선택</t>
+    </r>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택
+자격증 재선택 - 다시 선택한 자격증의 기출문제 삽입 
+(기출문제/과목/버튼 영역 보이는 상태)
+1) 자격증 셀렉트박스의 &lt;리눅스마스터 1급&gt;으로 재선택</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">셀렉트 박스의 자격증 항목 선택
+자격증 재선택 - 다시 선택한 자격증의 기출문제 삽입 
+(기출문제/과목/버튼 영역 보이는 상태)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) 자격증 셀렉트박스의 &lt;리눅스마스터 1급&gt;으로 재선택</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">셀렉트 박스의 자격증 항목 선택
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>자격증 재선택 - 다시 선택한 자격증의 기출문제 삽입 
+(기출문제/과목/버튼 영역 보이는 상태)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) 자격증 셀렉트박스의 &lt;리눅스마스터 1급&gt;으로 재선택</t>
+    </r>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택
+- 아무런 선택 없는 상태
+1) 자격증 셀렉트박스의 &lt;정보처리기사&gt; 선택</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">셀렉트 박스의 자격증 항목 선택
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>- 아무런 선택 없는 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) 자격증 셀렉트박스의 &lt;정보처리기사&gt; 선택</t>
+    </r>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택
+- 선택된 자격증이 없는 상태
+1) 자격증 셀렉트박스의 &lt;정보처리기사&gt; 선택</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">셀렉트 박스의 자격증 항목 선택
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>- 선택된 자격증이 없는 상태</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) 자격증 셀렉트박스의 &lt;정보처리기사&gt; 선택</t>
+    </r>
+  </si>
+  <si>
+    <t>자격증 셀렉트박스 생성</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>자격증 셀렉트박스 생성</t>
+    </r>
+  </si>
+  <si>
+    <t>자격증 셀렉트박스</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>자격증 셀렉트박스</t>
+    </r>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택
+- 선택된 자격증이 없음
+1) 자격증 셀렉트박스의 &lt;정보처리기사&gt; 선택</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">셀렉트 박스의 자격증 항목 선택
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>- 선택된 자격증이 없음</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) 자격증 셀렉트박스의 &lt;정보처리기사&gt; 선택</t>
+    </r>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택
+1) 선택된 자격증 정보처리 기사
+2) 자격증 셀렉트박스의 &lt;리눅스마스터 1급&gt;으로 재선택</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">셀렉트 박스의 자격증 항목 선택
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) 선택된 자격증 정보처리 기사
+2) 자격증 셀렉트박스의 &lt;리눅스마스터 1급&gt;으로 재선택</t>
+    </r>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택
+1) 자격증 셀렉트박스의 &lt;정보처리기사&gt; 선택</t>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택
+1) 자격증 셀렉트 박스의 &lt;정보처리기사&gt; 선택
+2) 자격증 셀렉트박스의 &lt;리눅스마스터 1급&gt;으로 재선택</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">셀렉트 박스의 자격증 항목 선택
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) 자격증 셀렉트 박스의 &lt;정보처리기사&gt; 선택
+2) 자격증 셀렉트박스의 &lt;리눅스마스터 1급&gt;으로 재선택</t>
+    </r>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택
+1) &lt;정보처리기사&gt; 선택
+2) 자격증 셀렉트박스의 &lt;리눅스마스터 1급&gt;으로 재선택</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">셀렉트 박스의 자격증 항목 선택
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) &lt;정보처리기사&gt; 선택
+2) 자격증 셀렉트박스의 &lt;리눅스마스터 1급&gt;으로 재선택</t>
+    </r>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택
+1) &lt;정보처리기사&gt; 선택</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">셀렉트 박스의 자격증 항목 선택
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) &lt;정보처리기사&gt; 선택</t>
+    </r>
+  </si>
+  <si>
+    <t>셀렉트 박스의 자격증 항목 선택
+1) &lt;정보처리기사&gt; 선택
+2) &lt;리눅스마스터 1급&gt;으로 재선택</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">셀렉트 박스의 자격증 항목 선택
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>1) &lt;정보처리기사&gt; 선택
+2) &lt;리눅스마스터 1급&gt;으로 재선택</t>
+    </r>
+  </si>
+  <si>
+    <t>자격증 셀렉트박스 클릭</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>자격증 셀렉트박스 클릭</t>
+    </r>
+  </si>
+  <si>
+    <t>- 테스트를 위한 시험(자격증/기출문제/과목) 데이터가 DB 관리자를 통해 준비되었음을 가정
+1) 자격증 : 정보처리기사 / 리눅스마스터 1급
+2) 기출문제 : 2019.03.03(정보처리기사) / 2019.04.27(정보처리기사) /  2020.04.27(정보처리기사) / 2019-03-16(리눅스마스터 1급) / 2019-09-21(리눅스마스터 1급)
+3) 과목 : 데이터베이스, 전자계산기 구조, 운영체제, 소프트웨어 공학, 데이터 통신 (정보처리기사, 5과목) / 리눅스 실무의 이해, 리눅스 시스템 관리, 네트워크 및 서비스의 활용 (리눅스마스터 1급, 3과목)</t>
+  </si>
+  <si>
+    <t>- 테스트를 위한 시험(자격증/기출문제/과목) 데이터가 DB 관리자를 통해 준비되었음을 가정
+1) 자격증 : 정보처리기사 / 리눅스마스터 1급
+2) 기출문제 : 2019-03-03(정보처리기사) / 2019-04-27(정보처리기사) /  2020-03-08(정보처리기사) / 2019-03-16(리눅스마스터 1급) / 2019-09-21(리눅스마스터 1급)
+3) 과목 : 데이터베이스, 전자계산기 구조, 운영체제, 소프트웨어 공학, 데이터 통신 (정보처리기사, 5과목) / 리눅스 실무의 이해, 리눅스 시스템 관리, 네트워크 및 서비스의 활용 (리눅스마스터 1급, 3과목)</t>
+  </si>
+  <si>
+    <t>- 테스트를 위한 시험(자격증/기출문제/과목) 데이터가 DB 관리자를 통해 준비되었음을 가정
+1) 자격증 : 정보처리기사 / 리눅스마스터 1급
+2) 기출문제 : A102019-03-03(정보처리기사) / 2019-04-27(정보처리기사) /  2020-03-08(정보처리기사) / 2019-03-16(리눅스마스터 1급) / 2019-09-21(리눅스마스터 1급)
+3) 과목 : 데이터베이스, 전자계산기 구조, 운영체제, 소프트웨어 공학, 데이터 통신 (정보처리기사, 5과목) / 리눅스 실무의 이해, 리눅스 시스템 관리, 네트워크 및 서비스의 활용 (리눅스마스터 1급, 3과목)</t>
+  </si>
 </sst>
 </file>
 
@@ -2839,7 +3312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3203,6 +3676,12 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
@@ -3263,13 +3742,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1123950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>704850</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>2295525</xdr:rowOff>
     </xdr:to>
@@ -3295,7 +3774,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6246495" y="6096000"/>
+          <a:off x="6875145" y="6096000"/>
           <a:ext cx="1743075" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
@@ -3306,20 +3785,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
+      <xdr:rowOff>685800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1123950</xdr:rowOff>
+      <xdr:rowOff>2009775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 2" descr="xl/media/OImage2198527051.png"/>
+        <xdr:cNvPr id="3" name="그림 3" descr="xl/media/OImage2245528172.png"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3332,15 +3811,15 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
+        <a:srcRect t="36111"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1341120" y="7905750"/>
-          <a:ext cx="1695450" cy="638175"/>
+          <a:off x="6903720" y="8105775"/>
+          <a:ext cx="1724025" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -3350,20 +3829,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>733425</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>904875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2790825</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1485900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 3" descr="xl/media/OImage2245528172.png"/>
+        <xdr:cNvPr id="4" name="그림 4"/>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3383,8 +3862,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6332220" y="8153400"/>
-          <a:ext cx="1724025" cy="2057400"/>
+          <a:off x="2655570" y="10448925"/>
+          <a:ext cx="1600200" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1009650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1562100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 5"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2693670" y="8429625"/>
+          <a:ext cx="1600200" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect"/>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1619250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 6"/>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6941820" y="10134600"/>
+          <a:ext cx="1695450" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
         <a:noFill/>
@@ -3682,8 +4249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3852,7 +4419,7 @@
     </row>
     <row r="12" spans="1:12" ht="75.000000" customHeight="1">
       <c r="A12" s="43" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
@@ -3908,8 +4475,8 @@
       <c r="A15" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="110" t="s">
-        <v>167</v>
+      <c r="B15" s="122" t="s">
+        <v>261</v>
       </c>
       <c r="C15" s="111"/>
       <c r="D15" s="111"/>
@@ -3924,10 +4491,10 @@
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
     </row>
-    <row r="16" spans="1:12" ht="225.000000" customHeight="1">
+    <row r="16" spans="1:12" ht="167.250000" customHeight="1">
       <c r="A16" s="47"/>
-      <c r="B16" s="113" t="s">
-        <v>169</v>
+      <c r="B16" s="121" t="s">
+        <v>272</v>
       </c>
       <c r="C16" s="114"/>
       <c r="D16" s="115"/>
@@ -3942,10 +4509,10 @@
       <c r="K16" s="23"/>
       <c r="L16" s="24"/>
     </row>
-    <row r="17" spans="1:12" ht="69.000000" customHeight="1">
+    <row r="17" spans="1:12" ht="147.750000" customHeight="1">
       <c r="A17" s="47"/>
-      <c r="B17" s="113" t="s">
-        <v>234</v>
+      <c r="B17" s="121" t="s">
+        <v>274</v>
       </c>
       <c r="C17" s="114"/>
       <c r="D17" s="115"/>
@@ -3960,10 +4527,10 @@
       <c r="K17" s="23"/>
       <c r="L17" s="24"/>
     </row>
-    <row r="18" spans="1:12" ht="60.000000" customHeight="1">
+    <row r="18" spans="1:12" ht="74.250000" customHeight="1">
       <c r="A18" s="47"/>
-      <c r="B18" s="113" t="s">
-        <v>224</v>
+      <c r="B18" s="121" t="s">
+        <v>253</v>
       </c>
       <c r="C18" s="114"/>
       <c r="D18" s="115"/>
@@ -7695,8 +8262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L220"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>

--- a/Text/03.테스트 시나리오/3th_Project_테스트 시나리오(영우).xlsx
+++ b/Text/03.테스트 시나리오/3th_Project_테스트 시나리오(영우).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="7" rupBuild="8.1.852.35783"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="710" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="시험선택" sheetId="18" r:id="rId1"/>
@@ -3682,8 +3682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L230"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -7695,8 +7695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L220"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D18"/>
+    <sheetView topLeftCell="A13" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
